--- a/PeptideRegisCode/PlateMap.xlsx
+++ b/PeptideRegisCode/PlateMap.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38654C24-0277-4034-AC2E-0BF69D002C44}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46782764-D2D1-4786-A1FE-6F8603CD1FEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="1081">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3353,6 +3353,9 @@
   </si>
   <si>
     <t>U9657DJ300-1072</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -3774,17 +3777,17 @@
   <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="7" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4543,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2</v>
+        <v>1080</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>3</v>
